--- a/rp/Excel/Chat_快捷短语.xlsx
+++ b/rp/Excel/Chat_快捷短语.xlsx
@@ -34,11 +34,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
+    <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -47,7 +48,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -62,34 +63,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -110,7 +83,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -171,30 +151,33 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="164" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="4" fillId="0" fontId="2" numFmtId="165" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="5" fillId="0" fontId="2" numFmtId="166" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="165" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,157 +504,258 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="49"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="31"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="52"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="24" r="1">
-      <c r="A1" s="4" t="str">
+    <row customHeight="true" ht="26" r="1">
+      <c r="A1" s="2" t="str">
         <v>int</v>
       </c>
-      <c r="B1" s="5" t="str">
+      <c r="B1" s="3" t="str">
         <v>string[]</v>
       </c>
-      <c r="C1" s="5" t="str">
+      <c r="C1" s="3" t="str">
         <v>string[][]</v>
       </c>
-    </row>
-    <row customHeight="true" ht="24" r="2">
-      <c r="A2" s="4" t="str">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row customHeight="true" ht="26" r="2">
+      <c r="A2" s="2" t="str">
         <v>Id</v>
       </c>
-      <c r="B2" s="5" t="str">
+      <c r="B2" s="3" t="str">
         <v>Chats</v>
       </c>
-      <c r="C2" s="5" t="str">
+      <c r="C2" s="3" t="str">
         <v>ChatChilds</v>
       </c>
-    </row>
-    <row customHeight="true" ht="25" r="3">
-      <c r="A3" s="4" t="str">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row customHeight="true" ht="27" r="3">
+      <c r="A3" s="2" t="str">
         <v>唯一ID</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-    </row>
-    <row customHeight="true" ht="24" r="4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="4"/>
-    </row>
-    <row customHeight="true" ht="25" r="5">
-      <c r="A5" s="1">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row customHeight="true" ht="26" r="4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row customHeight="true" ht="27" r="5">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="str">
-        <v>I Am {0}|我是{0}</v>
-      </c>
-      <c r="C5" s="5" t="str">
-        <v>Student|学生||Detective|侦探||Murderer|凶手</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="25" r="6">
-      <c r="A6" s="1">
+      <c r="B5" s="1" t="str">
+        <v>Praise|赞美</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <v>Your outfit looks great!|你的搭配真好看！||This dress fits you well!|这件衣服好适合你！||Hair and makeup match!|发型和妆容绝配！||You're so good!|你太会搭了！</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row customHeight="true" ht="27" r="6">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="str">
-        <v>Who Is The Murderer?|凶手是谁？</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row customHeight="true" ht="25" r="7">
-      <c r="A7" s="1">
+      <c r="B6" s="3" t="str">
+        <v>Help|求助</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <v>How about looking at this set for me?|帮我看看这套怎么样？||What shoes would go with this dress?|这件衣服配什么鞋子好？||Are there any recommended color combinations?|有没有推荐的颜色搭配？||Does this hairstyle suit me?|这个发型适合我吗？</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row customHeight="true" ht="27" r="7">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="str">
-        <v>It Ticks Me Off|0.o 气死我了</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row customHeight="true" ht="25" r="8">
-      <c r="A8" s="1">
+      <c r="B7" s="3" t="str">
+        <v>Interaction|互动</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <v>Share your outfit!|分享一下穿搭吧！||PK to match it!|来PK一下搭配吧！||What style do you prefer?|你喜欢什么风格？||We can try each other on!|我们可以互相试穿哦！</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row customHeight="true" ht="27" r="8">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="str">
-        <v>Help!|救命啊！</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row customHeight="true" ht="25" r="9">
-      <c r="A9" s="1">
+      <c r="B8" s="3" t="str">
+        <v>Thank you|感谢</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <v>Thanks for the advice!|谢谢你的建议！||Thanks for sharing!|感谢你的分享！||Thanks for the compliment!|谢谢夸奖！||Thanks for your help!|感谢你的帮助！</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row customHeight="true" ht="27" r="9">
+      <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="str">
-        <v>Thank You!|谢谢你 ^_^</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row customHeight="true" ht="25" r="10">
-      <c r="A10" s="1">
+      <c r="B9" s="3" t="str">
+        <v>Make fun of|吐槽</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <v>This dress is so hard to match!|这件衣服太难搭了！||You are out of line!|你好过分！||No hee hee!|不嘻嘻！</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row customHeight="true" ht="27" r="10">
+      <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="str">
-        <v>Hello!|你好！</v>
-      </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row customHeight="true" ht="25" r="11">
-      <c r="A11" s="1">
+      <c r="B10" s="3" t="str">
+        <v>Invitation|邀请</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <v>Add a friend!|加个好友吧！||Team up!|一起组队吧！||Come on, my dress!|试穿我的穿搭！</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row customHeight="true" ht="27" r="11">
+      <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="2" t="str">
-        <v>Don't Kill Me :(((|别刀我 QAQ</v>
-      </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row customHeight="true" ht="25" r="12">
-      <c r="A12" s="1">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="str">
-        <v>Stay Away From Me!|&lt;--退！&lt;--退！&lt;--退！</v>
-      </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row customHeight="true" ht="25" r="13">
-      <c r="A13" s="1">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2" t="str">
-        <v>Perfect!|*0* 满分操作！</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row customHeight="true" ht="24" r="14">
-      <c r="A14" s="1">
-        <v>10</v>
-      </c>
-      <c r="B14" s="4" t="str">
+      <c r="B11" s="3" t="str">
         <v>Show Time!|)*o*( 我要开始表演了~</v>
       </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row customHeight="true" ht="19" r="15"/>
-    <row customHeight="true" ht="19" r="16"/>
-    <row customHeight="true" ht="19" r="17"/>
-    <row customHeight="true" ht="19" r="18"/>
-    <row customHeight="true" ht="19" r="19"/>
-    <row customHeight="true" ht="19" r="20"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row customHeight="true" ht="27" r="12">
+      <c r="A12" s="4"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row customHeight="true" ht="27" r="13">
+      <c r="A13" s="4"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row customHeight="true" ht="26" r="14">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row customHeight="true" ht="21" r="15"/>
+    <row customHeight="true" ht="21" r="16"/>
+    <row customHeight="true" ht="21" r="17"/>
+    <row customHeight="true" ht="21" r="18"/>
+    <row customHeight="true" ht="21" r="19"/>
+    <row customHeight="true" ht="21" r="20"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <picture r:id="rId1"/>
 </worksheet>
 </file>